--- a/ReadingsProject/readings.xlsx
+++ b/ReadingsProject/readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCA\Desktop\Uipath\ReadingsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494E2104-038D-48AE-B2CF-5446AD7FEFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FA8D4-91A8-44FA-8551-383E119069B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readings" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">
 Vespers: Gen 17:1-7, 9-12, 14; Prov 8:22-30; Prov 10:31-32, 11:1-12;  (Circumcision); Matins: Jn 10:9-16 (§ 36);  (Basil); Liturgy: Heb 11:8, 11-16 (§ 327) (Friday of the 30th Week after Pentecost); Mk 10:23b-32a (§ 46) (Friday of the 31th Week after Pentecost); ; Col 2:8-12 (§ 254); Lk 2:20-21, 40-52 (§ 6);  (Circumcision); Heb 7:26-8:2 (§ 318); Lk 6:17-23a (§ 24);  (Basil); </t>
@@ -38,6 +38,58 @@
   <si>
     <t xml:space="preserve">
 Matins: Jn 20:11-18 (§ 64) [Matutinal Gospel 8]; ; Liturgy: II Tim 4:5-8 (§ 298); Mk 1:1-8 (§ 1);  (Sunday before Theophany); Col 1:12-18 (§ 250) (28th Sunday after Pentecost); Lk 18:35-43 (§ 93) (31th Sunday after Pentecost); ; II Tim 2:1-10 (§ 292); Mt 10:16-22 (§ 36);  (Martyr Gordius); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Heb 11:17-23, 27-31 (§ 329) (Monday of the 31st Week after Pentecost); Mk 10:46-52 (§ 48) (Monday of the 32st Week after Pentecost); ; Rom 8:8-14 (§ 96 (mid.)); Lk 10:1-15 (§ 50);  (Apostles); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1st Hour: Isa 35:1-10; Acts 13:25-32 (§ 33); Mt 3:1-11 (§ 5);  (Royal Hours); 3rd Hour: Isa 1:16-20; Acts 19:1-8 (§ 42); Mk 1:1-8 (§ 1);  (Royal Hours); 6th Hour: Isa 12:3-6; Rom 6:3-11 (§ 91); Mk 1:9-15 (§ 2);  (Royal Hours); 9th Hour: Isa 49:8-15; Tit 2:11-14,3:4-7 (§ 302); Mt 3:13-17 (§ 6);  (Royal Hours); Vespers: Gen 1:1-13; Ex 14:15-18,21-23,27-29a; Ex 15:22-27,16:1a; Josh 3:7-8,15-17; IV Kings 2:6-14; IV Kings 5:9-14; Isa 1:16-20; Gen 32:1-10a; Ex 2:5-10; Judg 6:36-40; III Kings 18:30-39; IV Kings 2:19-22; Isa 49:8-15;  (Eve); Liturgy: I Cor 9:19-27 (§ 143); Lk 3:1-18 (§ 9);  (Eve); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Matins: Mk 1:9-11 (§ 2);  (Holy Theophany); Liturgy: Tit 2:11-14, 3:4-7 (§ 302); Mt 3:13-17 (§ 6);  (Holy Theophany); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Jas 1:19-27 (§ 51) (Thursday of the 31st Week after Pentecost); Mk 11:27-33 (§ 52) (Thursday of the 32st Week after Pentecost); ; Acts 19:1-8 (§ 42); Jn 1:29-34 (§ 3);  (Forerunner); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Jas 2:1-13 (§ 52) (Friday of the 31st Week after Pentecost); Mk 12:1-12 (§ 53) (Friday of the 32st Week after Pentecost); ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Heb 13:17-21 (§ 335); Jn 10:9-16 (§ 36);  (Hieromartyr); Eph 6:10-17 (§ 233); Mt 4:1-11 (§ 7);  (Saturday after Theophany); Eph 5:1-8a (§ 228) (Saturday of the 30st Week after Pentecost); Mt 24:34-44 (§ 101) (Saturday of the 16st Week after Pentecost); ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Matins: Jn 20:19-31 (§ 65) [Matutinal Gospel 9]; ; Liturgy: Eph 4:7-13 (§ 224 (mid.)); Mt 4:12-17 (§ 8);  (Sunday after Theophany); Col 3:12-16 (§ 258) (30st Sunday after Pentecost); Mt 25:14-30 (§ 105) (16st Sunday after Pentecost); ; I Cor 12:7-11 (§ 151); Mt 10:1,5-8 (§ 34 (mid.));  (Saint Gregory); Heb 7:26-8:2 (§ 318); Jn 10:9-16 (§ 36);  (Saint Theophan); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Matins: Lk 6:17-23a (§ 24);  (Venerable Theodosius); Liturgy: Jas 2:14-26 (§ 53) (Monday of the 32nd Week after Pentecost); Mk 12:13-17 (§ 54) (Monday of the 33nd Week after Pentecost); ; II Cor 4:6-15 (§ 176); Mt 11:27-30 (§ 43);  (Venerable Theodosius); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Jas 3:1-10 (§ 54) (Tuesday of the 32nd Week after Pentecost); Mk 12:18-27 (§ 55) (Tuesday of the 33nd Week after Pentecost); ; Heb 7:26-8:2 (§ 318); Jn 10:9-16 (§ 36);  (Saint Sava); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Jas 3:11-4:6 (§ 55) (Wednesday of the 32nd Week after Pentecost); Mk 12:28-37 (§ 56) (Wednesday of the 33nd Week after Pentecost); ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Matins: Mt 10:1, 5-8 (§ 34 (mid.));  (Saint Nina); Liturgy: Jas 4:7-5:9 (§ 56) (Thursday of the 32nd Week after Pentecost); Mk 12:38-44 (§ 57) (Thursday of the 33nd Week after Pentecost); ; Rom 8:28-39 (§ 99); Lk 6:17-23a (§ 24);  (Monastic Fathers); I Cor 4:9-16 (§ 131); Mt 25:1-13 (§ 104);  (Saint Nina); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: I Pet 1:1-2, 10-12, 2:6-10 (§ 58) (Friday of the 32nd Week after Pentecost); Mk 13:1-8 (§ 58) (Friday of the 33nd Week after Pentecost); ; Gal 5:22-6:2 (§ 213); Mt 11:27-30 (§ 43);  (Venerable Paul); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Liturgy: Acts 12:1-11 (§ 29); Jn 21:15-25 (§ 67) [Matutinal Gospel 11];  (St Peter); Col 1:3-6 (§ 249 (mid.)) (Saturday of the 31nd Week after Pentecost); Mt 25:1-13 (§ 104) (Saturday of the 17nd Week after Pentecost); ; </t>
   </si>
 </sst>
 </file>
@@ -359,14 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63DF3F7-0385-4B86-AA82-74BE66490F56}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -392,6 +445,110 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ReadingsProject/readings.xlsx
+++ b/ReadingsProject/readings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCA\Desktop\Uipath\ReadingsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grenada PC 07\Documents\UiPath\Uipath\ReadingsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FA8D4-91A8-44FA-8551-383E119069B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB762B4-9012-49F0-A148-28F8B43D1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readings" sheetId="3" r:id="rId1"/>

--- a/ReadingsProject/readings.xlsx
+++ b/ReadingsProject/readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grenada PC 07\Documents\UiPath\Uipath\ReadingsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB762B4-9012-49F0-A148-28F8B43D1EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640E0C9-5CBF-4445-BE13-07847D9CF4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readings" sheetId="3" r:id="rId1"/>
